--- a/medicine/Premiers secours et secourisme/Société_de_sauvetage_canadienne/Société_de_sauvetage_canadienne.xlsx
+++ b/medicine/Premiers secours et secourisme/Société_de_sauvetage_canadienne/Société_de_sauvetage_canadienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fondation de la Société de sauvetage canadienne remonte au XIXe siècle. En effet, Arthur Lewis Cochrane, membre du Swimmers’ Life Saving Society (nom de la société en Grande-Bretagne), apporte avec lui les connaissances et les compétences reliées au sauvetage lorsqu'il quitte sa terre natale pour venir s'installer au Canada. Enseignant les cours de sauvetages au Upper Canada College à Toronto, en Ontario, il forme ainsi 18 candidats qui reçoivent leur médaille de bronze, lors de l'été 1896. En 1904, à la suite d'un décret du roi Édouard VII, la société se voit attribuer le titre de Royal Life Saving Society (Société royale de sauvetage Canada).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prévenir tout accident pouvant être lié à la noyade ou à des incidents associés à l'eau. Les moyens entrepris étant : 
 de promouvoir des programmes visant les domaines du sauvetage, de la surveillance aquatique, du leadership ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Société de sauvetage a été mise sur pied à l'origine afin d'aider les canadiens à acquérir des connaissances et des habiletés pour assurer une sécurité aquatique. La Société de sauvetage assure et veille au bon fonctionnement des domaines de la formation en sauvetage et en sécurité aquatique. Elle met ainsi sur pied divers programmes de formation et de sensibilisation.
 Pour mettre à exécution sa vision, la Société de sauvetage :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Valeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Société de sauvetage prône le respect et l'application de ses valeurs. Tous les membres de la société, du surveillant sauveteur au président de la société, suivent ses valeurs et les mettent chaque jour en avant.
 Principes humanitaires
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Formations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Société a monté sur pied une formation graduelle. Par conséquent, afin d'acquérir le titre de Surveillant Sauveteur, le candidat aura à suivre une série de formations dans lequel il acquerra les connaissances, les compétences et les habiletés requises afin d'effectuer une prévention et une intervention adéquate en milieu aquatique.
 Formations falcultatives
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_sauvetage_canadienne</t>
+          <t>Société_de_sauvetage_canadienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +680,9 @@
           <t>Conditions d'embauche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les critères d'embauche à titre de surveillant-sauveteur ou d'assistant-surveillant-sauveteur diffère légèrement d'une province à l'autre, tout dépendant de la législation en vigueur.
 Au Québec :
